--- a/DataPool2.xlsx
+++ b/DataPool2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verity-Usuario\eclipse-workspace\AceptaDec5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A086E-F146-46E9-AAAC-913CE2CE0F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693701C1-5018-4856-882C-126BA4A026FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="439">
   <si>
     <t>18092588-0</t>
   </si>
@@ -856,6 +856,501 @@
   </si>
   <si>
     <t>DEC_0081</t>
+  </si>
+  <si>
+    <t>DEC_0078</t>
+  </si>
+  <si>
+    <t>DEC_0071</t>
+  </si>
+  <si>
+    <t>DEC_0073</t>
+  </si>
+  <si>
+    <t>DEC_0075</t>
+  </si>
+  <si>
+    <t>DEC_0076</t>
+  </si>
+  <si>
+    <t>DEC_0372</t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>QA2</t>
+  </si>
+  <si>
+    <t>QA3</t>
+  </si>
+  <si>
+    <t>QA4</t>
+  </si>
+  <si>
+    <t>QA5</t>
+  </si>
+  <si>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>QA7</t>
+  </si>
+  <si>
+    <t>DEC_0373</t>
+  </si>
+  <si>
+    <t>DEC_0374</t>
+  </si>
+  <si>
+    <t>DEC_0376</t>
+  </si>
+  <si>
+    <t>DEC_0377</t>
+  </si>
+  <si>
+    <t>DEC_0379</t>
+  </si>
+  <si>
+    <t>DEC_0380</t>
+  </si>
+  <si>
+    <t>DEC_0381</t>
+  </si>
+  <si>
+    <t>DEC_0382</t>
+  </si>
+  <si>
+    <t>DEC_0383</t>
+  </si>
+  <si>
+    <t>DEC_0384</t>
+  </si>
+  <si>
+    <t>DEC_0385</t>
+  </si>
+  <si>
+    <t>DEC_0386</t>
+  </si>
+  <si>
+    <t>DEC_0387</t>
+  </si>
+  <si>
+    <t>DEC_0388</t>
+  </si>
+  <si>
+    <t>DEC_0389</t>
+  </si>
+  <si>
+    <t>DEC_0390</t>
+  </si>
+  <si>
+    <t>DEC_0391</t>
+  </si>
+  <si>
+    <t>DEC_0392</t>
+  </si>
+  <si>
+    <t>DEC_0393</t>
+  </si>
+  <si>
+    <t>DEC_0394</t>
+  </si>
+  <si>
+    <t>DEC_0395</t>
+  </si>
+  <si>
+    <t>DEC_0396</t>
+  </si>
+  <si>
+    <t>DEC_0397</t>
+  </si>
+  <si>
+    <t>DEC_0398</t>
+  </si>
+  <si>
+    <t>DEC_0399</t>
+  </si>
+  <si>
+    <t>DEC_0400</t>
+  </si>
+  <si>
+    <t>DEC_0401</t>
+  </si>
+  <si>
+    <t>DEC_0402</t>
+  </si>
+  <si>
+    <t>DEC_0403</t>
+  </si>
+  <si>
+    <t>DEC_0404</t>
+  </si>
+  <si>
+    <t>DEC_0405</t>
+  </si>
+  <si>
+    <t>DEC_0406</t>
+  </si>
+  <si>
+    <t>DEC_0407</t>
+  </si>
+  <si>
+    <t>DEC_0408</t>
+  </si>
+  <si>
+    <t>DEC_0409</t>
+  </si>
+  <si>
+    <t>DEC_0410</t>
+  </si>
+  <si>
+    <t>DEC_0411</t>
+  </si>
+  <si>
+    <t>DEC_0412</t>
+  </si>
+  <si>
+    <t>DEC_0413</t>
+  </si>
+  <si>
+    <t>DEC_0414</t>
+  </si>
+  <si>
+    <t>DEC_0415</t>
+  </si>
+  <si>
+    <t>DEC_0416</t>
+  </si>
+  <si>
+    <t>DEC_0417</t>
+  </si>
+  <si>
+    <t>DEC_0418</t>
+  </si>
+  <si>
+    <t>DEC_0419</t>
+  </si>
+  <si>
+    <t>DEC_0420</t>
+  </si>
+  <si>
+    <t>DEC_0421</t>
+  </si>
+  <si>
+    <t>DEC_0422</t>
+  </si>
+  <si>
+    <t>DEC_0423</t>
+  </si>
+  <si>
+    <t>DEC_0424</t>
+  </si>
+  <si>
+    <t>DEC_0425</t>
+  </si>
+  <si>
+    <t>DEC_0426</t>
+  </si>
+  <si>
+    <t>DEC_0427</t>
+  </si>
+  <si>
+    <t>DEC_0428</t>
+  </si>
+  <si>
+    <t>DEC_0429</t>
+  </si>
+  <si>
+    <t>DEC_0430</t>
+  </si>
+  <si>
+    <t>DEC_0431</t>
+  </si>
+  <si>
+    <t>DEC_0432</t>
+  </si>
+  <si>
+    <t>DEC_0433</t>
+  </si>
+  <si>
+    <t>DEC_0434</t>
+  </si>
+  <si>
+    <t>DEC_0435</t>
+  </si>
+  <si>
+    <t>DEC_0436</t>
+  </si>
+  <si>
+    <t>DEC_0437</t>
+  </si>
+  <si>
+    <t>DEC_0438</t>
+  </si>
+  <si>
+    <t>DEC_0439</t>
+  </si>
+  <si>
+    <t>DEC_0440</t>
+  </si>
+  <si>
+    <t>DEC_0441</t>
+  </si>
+  <si>
+    <t>DEC_0442</t>
+  </si>
+  <si>
+    <t>DEC_0443</t>
+  </si>
+  <si>
+    <t>DEC_0444</t>
+  </si>
+  <si>
+    <t>DEC_0445</t>
+  </si>
+  <si>
+    <t>DEC_0446</t>
+  </si>
+  <si>
+    <t>DEC_0447</t>
+  </si>
+  <si>
+    <t>DEC_0448</t>
+  </si>
+  <si>
+    <t>DEC_0449</t>
+  </si>
+  <si>
+    <t>DEC_0450</t>
+  </si>
+  <si>
+    <t>Rut Nombre</t>
+  </si>
+  <si>
+    <t>DEC_0451</t>
+  </si>
+  <si>
+    <t>DEC_007</t>
+  </si>
+  <si>
+    <t>DEC_0452</t>
+  </si>
+  <si>
+    <t>DEC_0453</t>
+  </si>
+  <si>
+    <t>DEC_0454</t>
+  </si>
+  <si>
+    <t>DEC_0455</t>
+  </si>
+  <si>
+    <t>DEC_0456</t>
+  </si>
+  <si>
+    <t>DEC_0457</t>
+  </si>
+  <si>
+    <t>DEC_0458</t>
+  </si>
+  <si>
+    <t>DEC_0459</t>
+  </si>
+  <si>
+    <t>DEC_0460</t>
+  </si>
+  <si>
+    <t>DEC_0461</t>
+  </si>
+  <si>
+    <t>DEC_0464</t>
+  </si>
+  <si>
+    <t>DEC_0465</t>
+  </si>
+  <si>
+    <t>DEC_0466</t>
+  </si>
+  <si>
+    <t>DEC_0468</t>
+  </si>
+  <si>
+    <t>DEC_0469</t>
+  </si>
+  <si>
+    <t>DEC_0470</t>
+  </si>
+  <si>
+    <t>DEC_0471</t>
+  </si>
+  <si>
+    <t>DEC_0472</t>
+  </si>
+  <si>
+    <t>DEC_0473</t>
+  </si>
+  <si>
+    <t>DEC_0474</t>
+  </si>
+  <si>
+    <t>DEC_0475</t>
+  </si>
+  <si>
+    <t>DEC_0476</t>
+  </si>
+  <si>
+    <t>DEC_0477</t>
+  </si>
+  <si>
+    <t>DEC_0478</t>
+  </si>
+  <si>
+    <t>DEC_0479</t>
+  </si>
+  <si>
+    <t>DEC_0480</t>
+  </si>
+  <si>
+    <t>DEC_0481</t>
+  </si>
+  <si>
+    <t>DEC_0482</t>
+  </si>
+  <si>
+    <t>DEC_0483</t>
+  </si>
+  <si>
+    <t>DEC_0484</t>
+  </si>
+  <si>
+    <t>DEC_0485</t>
+  </si>
+  <si>
+    <t>DEC_0486</t>
+  </si>
+  <si>
+    <t>DEC_0487</t>
+  </si>
+  <si>
+    <t>DEC_0488</t>
+  </si>
+  <si>
+    <t>DEC_0489</t>
+  </si>
+  <si>
+    <t>DEC_0490</t>
+  </si>
+  <si>
+    <t>DEC_0491</t>
+  </si>
+  <si>
+    <t>DEC_0492</t>
+  </si>
+  <si>
+    <t>DEC_0493</t>
+  </si>
+  <si>
+    <t>DEC_0494</t>
+  </si>
+  <si>
+    <t>DEC_0495</t>
+  </si>
+  <si>
+    <t>DEC_0496</t>
+  </si>
+  <si>
+    <t>DEC_0497</t>
+  </si>
+  <si>
+    <t>DEC_0498</t>
+  </si>
+  <si>
+    <t>DEC_0499</t>
+  </si>
+  <si>
+    <t>DEC_0500</t>
+  </si>
+  <si>
+    <t>DEC_0501</t>
+  </si>
+  <si>
+    <t>DEC_0502</t>
+  </si>
+  <si>
+    <t>DEC_0503</t>
+  </si>
+  <si>
+    <t>DEC_0504</t>
+  </si>
+  <si>
+    <t>DEC_0505</t>
+  </si>
+  <si>
+    <t>DEC_0506</t>
+  </si>
+  <si>
+    <t>DEC_0507</t>
+  </si>
+  <si>
+    <t>DEC_0508</t>
+  </si>
+  <si>
+    <t>DEC_0509</t>
+  </si>
+  <si>
+    <t>DEC_0510</t>
+  </si>
+  <si>
+    <t>DEC_0511</t>
+  </si>
+  <si>
+    <t>DEC_0512</t>
+  </si>
+  <si>
+    <t>DEC_0517</t>
+  </si>
+  <si>
+    <t>DEC_0518</t>
+  </si>
+  <si>
+    <t>DEC_0519</t>
+  </si>
+  <si>
+    <t>DEC_0520</t>
+  </si>
+  <si>
+    <t>DEC_0521</t>
+  </si>
+  <si>
+    <t>DEC_0522</t>
+  </si>
+  <si>
+    <t>DEC_0524</t>
+  </si>
+  <si>
+    <t>DEC_0525</t>
+  </si>
+  <si>
+    <t>DEC_0526</t>
+  </si>
+  <si>
+    <t>DEC_0527</t>
+  </si>
+  <si>
+    <t>DEC_0528</t>
+  </si>
+  <si>
+    <t>DEC_0529</t>
+  </si>
+  <si>
+    <t>DEC_0530</t>
+  </si>
+  <si>
+    <t>DEC_0531</t>
+  </si>
+  <si>
+    <t>DEC_0532</t>
   </si>
 </sst>
 </file>
@@ -897,13 +1392,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J266"/>
+  <dimension ref="A1:J429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,9 +1696,9 @@
     <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -9649,67 +10147,5268 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J265" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I265" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J265" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="B270" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I266" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J266" s="4" t="s">
+      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J276" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J285" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J286" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J287" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J295" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I296" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I306" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J308" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J309" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J310" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J315" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J317" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J318" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I320" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I322" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I328" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I338" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I340" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I346" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F350" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G350" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H350" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I350" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J350" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I351" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J351" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I352" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J352" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J353" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I354" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J354" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J355" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I356" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J356" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J357" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I358" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J358" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J359" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I360" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J360" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I361" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J361" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J362" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I363" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J363" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I364" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J364" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I365" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J365" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I366" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J366" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I367" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J367" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I368" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J368" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I369" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J369" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I370" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J370" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I371" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J371" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I372" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J372" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I373" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J373" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I374" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J374" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I375" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J375" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J376" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I377" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J377" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I378" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J378" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I379" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J379" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I380" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J380" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I381" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J381" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I382" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J382" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I383" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J383" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I384" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J384" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I385" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J385" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I386" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J386" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I387" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J387" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I388" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J388" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I389" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J389" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I390" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J390" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I391" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J391" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J392" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I393" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J393" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J394" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I395" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J395" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J396" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I397" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J397" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I398" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J398" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I399" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J399" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I400" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J400" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I401" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J401" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I402" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J402" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I403" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J403" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I404" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J404" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I405" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J405" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I406" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J406" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I407" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J407" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I408" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J408" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I409" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J409" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I410" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J410" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J411" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I412" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J412" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I413" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J413" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I414" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J414" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I415" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J415" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I416" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J416" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I417" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J417" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I418" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J418" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I419" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J419" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I420" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J420" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I421" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J421" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I422" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J422" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I423" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J423" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J424" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B425" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I425" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J425" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B426" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I426" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J426" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B427" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I427" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J427" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B428" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J428" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B429" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I429" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J429" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/DataPool2.xlsx
+++ b/DataPool2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verity-Usuario\eclipse-workspace\AceptaDec5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Andrade\eclipse-workspace\DEC5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693701C1-5018-4856-882C-126BA4A026FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FB460-76CD-4797-A8FF-2E212B7333AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="471">
   <si>
     <t>18092588-0</t>
   </si>
@@ -1351,6 +1351,102 @@
   </si>
   <si>
     <t>DEC_0532</t>
+  </si>
+  <si>
+    <t>DEC_01254</t>
+  </si>
+  <si>
+    <t>DEC_01255</t>
+  </si>
+  <si>
+    <t>DEC_01256</t>
+  </si>
+  <si>
+    <t>DEC_01257</t>
+  </si>
+  <si>
+    <t>DEC_01258</t>
+  </si>
+  <si>
+    <t>DEC_01259</t>
+  </si>
+  <si>
+    <t>DEC_01260</t>
+  </si>
+  <si>
+    <t>DEC_01261</t>
+  </si>
+  <si>
+    <t>DEC_01262</t>
+  </si>
+  <si>
+    <t>DEC_01263</t>
+  </si>
+  <si>
+    <t>DEC_01264</t>
+  </si>
+  <si>
+    <t>DEC_01265</t>
+  </si>
+  <si>
+    <t>DEC_01266</t>
+  </si>
+  <si>
+    <t>DEC_01267</t>
+  </si>
+  <si>
+    <t>DEC_01268</t>
+  </si>
+  <si>
+    <t>DEC_01269</t>
+  </si>
+  <si>
+    <t>DEC_01270</t>
+  </si>
+  <si>
+    <t>DEC_01271</t>
+  </si>
+  <si>
+    <t>DEC_01272</t>
+  </si>
+  <si>
+    <t>DEC_01273</t>
+  </si>
+  <si>
+    <t>DEC_01274</t>
+  </si>
+  <si>
+    <t>DEC_01275</t>
+  </si>
+  <si>
+    <t>DEC_01276</t>
+  </si>
+  <si>
+    <t>DEC_01277</t>
+  </si>
+  <si>
+    <t>DEC_01278</t>
+  </si>
+  <si>
+    <t>DEC_01279</t>
+  </si>
+  <si>
+    <t>DEC_01280</t>
+  </si>
+  <si>
+    <t>DEC_01281</t>
+  </si>
+  <si>
+    <t>DEC_01282</t>
+  </si>
+  <si>
+    <t>DEC_01283</t>
+  </si>
+  <si>
+    <t>DEC_01284</t>
+  </si>
+  <si>
+    <t>DEC_01285</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J429"/>
+  <dimension ref="A1:J456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430:J456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15268,6 +15364,9 @@
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="B425" s="7" t="s">
         <v>1</v>
       </c>
@@ -15297,6 +15396,9 @@
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="B426" s="7" t="s">
         <v>1</v>
       </c>
@@ -15326,6 +15428,9 @@
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="B427" s="7" t="s">
         <v>1</v>
       </c>
@@ -15355,6 +15460,9 @@
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="B428" s="7" t="s">
         <v>1</v>
       </c>
@@ -15384,6 +15492,9 @@
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="B429" s="7" t="s">
         <v>1</v>
       </c>
@@ -15409,6 +15520,870 @@
         <v>6</v>
       </c>
       <c r="J429" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I430" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J430" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I431" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J431" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I432" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J432" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I433" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J433" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I434" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J434" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I435" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J435" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I436" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J436" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I437" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J437" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I438" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J438" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I439" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J439" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I440" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J440" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I441" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J441" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C442" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I442" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J442" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I443" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J443" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I444" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J444" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J445" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C446" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I446" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J446" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I447" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J447" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I448" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J448" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I449" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J449" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I450" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J450" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I451" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J451" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I452" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J452" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I453" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J453" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I454" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J454" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I455" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J455" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I456" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J456" s="6" t="s">
         <v>6</v>
       </c>
     </row>
